--- a/test_物件管理/已完成/test_契約管理_随時対応_値上げ更新.xlsx
+++ b/test_物件管理/已完成/test_契約管理_随時対応_値上げ更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="785">
   <si>
     <t>URL:</t>
   </si>
@@ -2552,13 +2552,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/main/div/div[1]/div[2]/div/ul/li[2]/div[2]/div[2]/div/a[4]/i</t>
-  </si>
-  <si>
-    <t>ALERT</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM ap_contractor</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2577,6 +2570,9 @@
   </si>
   <si>
     <t>105817</t>
+  </si>
+  <si>
+    <t>is_auto_update</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2783,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2845,12 +2841,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2933,7 +2923,7 @@
     </xf>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3278,14 +3268,17 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3617,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL129"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="DJ109" sqref="DJ109"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="V133" sqref="V133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12308,6 +12301,9 @@
       <c r="AA125" s="46" t="s">
         <v>552</v>
       </c>
+      <c r="AB125" s="160" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="126" spans="1:142">
       <c r="B126" s="48">
@@ -12388,6 +12384,9 @@
       <c r="AA126" s="48">
         <v>1</v>
       </c>
+      <c r="AB126" s="161">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:142">
       <c r="B127" s="48">
@@ -12468,6 +12467,9 @@
       <c r="AA127" s="48">
         <v>1</v>
       </c>
+      <c r="AB127" s="161">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:142" s="43" customFormat="1">
       <c r="B128" s="48" t="s">
@@ -12548,8 +12550,11 @@
       <c r="AA128" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:27" s="43" customFormat="1">
+      <c r="AB128" s="161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" s="43" customFormat="1">
       <c r="B129" s="48" t="s">
         <v>257</v>
       </c>
@@ -12626,6 +12631,9 @@
         <v>716</v>
       </c>
       <c r="AA129" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="161">
         <v>1</v>
       </c>
     </row>
@@ -14598,7 +14606,7 @@
     <row r="19" spans="1:142" s="65" customFormat="1">
       <c r="A19" s="63"/>
       <c r="B19" s="147" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -17763,10 +17771,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17945,21 +17953,8 @@
         <v>730</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25">
-      <c r="A25" s="156" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25">
-      <c r="A26" s="156" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="140"/>
+    <row r="25" spans="1:10">
+      <c r="B25" s="140"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -19836,7 +19831,7 @@
     <row r="19" spans="1:142" s="140" customFormat="1">
       <c r="A19" s="149"/>
       <c r="B19" s="147" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
@@ -23106,7 +23101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -23286,7 +23281,7 @@
         <v>756</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K4" s="146" t="s">
         <v>170</v>
@@ -24970,7 +24965,7 @@
     <row r="19" spans="1:142" s="140" customFormat="1">
       <c r="A19" s="149"/>
       <c r="B19" s="147" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
@@ -27229,7 +27224,7 @@
       <c r="I29" s="145" t="s">
         <v>575</v>
       </c>
-      <c r="J29" s="157" t="s">
+      <c r="J29" s="156" t="s">
         <v>170</v>
       </c>
       <c r="K29" s="146" t="s">
@@ -27425,7 +27420,7 @@
       <c r="I30" s="145" t="s">
         <v>575</v>
       </c>
-      <c r="J30" s="157" t="s">
+      <c r="J30" s="156" t="s">
         <v>170</v>
       </c>
       <c r="K30" s="146" t="s">
@@ -27621,7 +27616,7 @@
       <c r="I31" s="145" t="s">
         <v>575</v>
       </c>
-      <c r="J31" s="157" t="s">
+      <c r="J31" s="156" t="s">
         <v>170</v>
       </c>
       <c r="K31" s="146" t="s">
@@ -27817,7 +27812,7 @@
       <c r="I32" s="145" t="s">
         <v>575</v>
       </c>
-      <c r="J32" s="157" t="s">
+      <c r="J32" s="156" t="s">
         <v>170</v>
       </c>
       <c r="K32" s="146" t="s">
@@ -27987,201 +27982,201 @@
       <c r="EK32" s="148"/>
       <c r="EL32" s="148"/>
     </row>
-    <row r="33" spans="1:142" s="159" customFormat="1">
-      <c r="A33" s="158"/>
-      <c r="B33" s="160" t="s">
+    <row r="33" spans="1:142" s="158" customFormat="1">
+      <c r="A33" s="157"/>
+      <c r="B33" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="160" t="s">
+      <c r="C33" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="160" t="s">
+      <c r="D33" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="160" t="s">
+      <c r="E33" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="160" t="s">
+      <c r="F33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="160" t="s">
+      <c r="H33" s="159" t="s">
+        <v>780</v>
+      </c>
+      <c r="I33" s="159" t="s">
+        <v>781</v>
+      </c>
+      <c r="J33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" s="159" t="s">
+        <v>579</v>
+      </c>
+      <c r="N33" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="O33" s="159" t="s">
+        <v>580</v>
+      </c>
+      <c r="P33" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="R33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="S33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="T33" s="159" t="s">
+        <v>153</v>
+      </c>
+      <c r="U33" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="V33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="W33" s="159" t="s">
         <v>782</v>
       </c>
-      <c r="I33" s="160" t="s">
+      <c r="X33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y33" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z33" s="159" t="s">
         <v>783</v>
       </c>
-      <c r="J33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="K33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="M33" s="160" t="s">
-        <v>579</v>
-      </c>
-      <c r="N33" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="O33" s="160" t="s">
-        <v>580</v>
-      </c>
-      <c r="P33" s="160" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="R33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="S33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="T33" s="160" t="s">
-        <v>153</v>
-      </c>
-      <c r="U33" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="V33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="W33" s="160" t="s">
-        <v>784</v>
-      </c>
-      <c r="X33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y33" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z33" s="160" t="s">
-        <v>785</v>
-      </c>
-      <c r="AA33" s="160" t="s">
+      <c r="AA33" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="158"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="158"/>
-      <c r="AN33" s="158"/>
-      <c r="AO33" s="158"/>
-      <c r="AP33" s="158"/>
-      <c r="AQ33" s="158"/>
-      <c r="AR33" s="158"/>
-      <c r="AS33" s="158"/>
-      <c r="AT33" s="158"/>
-      <c r="AU33" s="158"/>
-      <c r="AV33" s="158"/>
-      <c r="AW33" s="158"/>
-      <c r="AX33" s="158"/>
-      <c r="AY33" s="158"/>
-      <c r="AZ33" s="158"/>
-      <c r="BA33" s="158"/>
-      <c r="BB33" s="158"/>
-      <c r="BC33" s="158"/>
-      <c r="BD33" s="158"/>
-      <c r="BE33" s="158"/>
-      <c r="BF33" s="158"/>
-      <c r="BG33" s="158"/>
-      <c r="BH33" s="158"/>
-      <c r="BI33" s="158"/>
-      <c r="BJ33" s="158"/>
-      <c r="BK33" s="158"/>
-      <c r="BL33" s="158"/>
-      <c r="BM33" s="158"/>
-      <c r="BN33" s="158"/>
-      <c r="BO33" s="158"/>
-      <c r="BP33" s="158"/>
-      <c r="BQ33" s="158"/>
-      <c r="BR33" s="158"/>
-      <c r="BS33" s="158"/>
-      <c r="BT33" s="158"/>
-      <c r="BU33" s="158"/>
-      <c r="BV33" s="158"/>
-      <c r="BW33" s="158"/>
-      <c r="BX33" s="158"/>
-      <c r="BY33" s="158"/>
-      <c r="BZ33" s="158"/>
-      <c r="CA33" s="158"/>
-      <c r="CB33" s="158"/>
-      <c r="CC33" s="158"/>
-      <c r="CD33" s="158"/>
-      <c r="CE33" s="158"/>
-      <c r="CF33" s="158"/>
-      <c r="CG33" s="158"/>
-      <c r="CH33" s="158"/>
-      <c r="CI33" s="158"/>
-      <c r="CJ33" s="158"/>
-      <c r="CK33" s="158"/>
-      <c r="CL33" s="158"/>
-      <c r="CM33" s="158"/>
-      <c r="CN33" s="158"/>
-      <c r="CO33" s="158"/>
-      <c r="CP33" s="158"/>
-      <c r="CQ33" s="158"/>
-      <c r="CR33" s="158"/>
-      <c r="CS33" s="158"/>
-      <c r="CT33" s="158"/>
-      <c r="CU33" s="158"/>
-      <c r="CV33" s="158"/>
-      <c r="CW33" s="158"/>
-      <c r="CX33" s="158"/>
-      <c r="CY33" s="158"/>
-      <c r="CZ33" s="158"/>
-      <c r="DA33" s="158"/>
-      <c r="DB33" s="158"/>
-      <c r="DC33" s="158"/>
-      <c r="DD33" s="158"/>
-      <c r="DE33" s="158"/>
-      <c r="DF33" s="158"/>
-      <c r="DG33" s="158"/>
-      <c r="DH33" s="158"/>
-      <c r="DI33" s="158"/>
-      <c r="DJ33" s="158"/>
-      <c r="DK33" s="158"/>
-      <c r="DL33" s="158"/>
-      <c r="DM33" s="158"/>
-      <c r="DN33" s="158"/>
-      <c r="DO33" s="158"/>
-      <c r="DP33" s="158"/>
-      <c r="DQ33" s="158"/>
-      <c r="DR33" s="158"/>
-      <c r="DS33" s="158"/>
-      <c r="DT33" s="158"/>
-      <c r="DU33" s="158"/>
-      <c r="DV33" s="158"/>
-      <c r="DW33" s="158"/>
-      <c r="DX33" s="158"/>
-      <c r="DY33" s="158"/>
-      <c r="DZ33" s="158"/>
-      <c r="EA33" s="158"/>
-      <c r="EB33" s="158"/>
-      <c r="EC33" s="158"/>
-      <c r="ED33" s="158"/>
-      <c r="EE33" s="158"/>
-      <c r="EF33" s="158"/>
-      <c r="EG33" s="158"/>
-      <c r="EH33" s="158"/>
-      <c r="EI33" s="158"/>
-      <c r="EJ33" s="158"/>
-      <c r="EK33" s="158"/>
-      <c r="EL33" s="158"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="157"/>
+      <c r="AJ33" s="157"/>
+      <c r="AK33" s="157"/>
+      <c r="AL33" s="157"/>
+      <c r="AM33" s="157"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="157"/>
+      <c r="AP33" s="157"/>
+      <c r="AQ33" s="157"/>
+      <c r="AR33" s="157"/>
+      <c r="AS33" s="157"/>
+      <c r="AT33" s="157"/>
+      <c r="AU33" s="157"/>
+      <c r="AV33" s="157"/>
+      <c r="AW33" s="157"/>
+      <c r="AX33" s="157"/>
+      <c r="AY33" s="157"/>
+      <c r="AZ33" s="157"/>
+      <c r="BA33" s="157"/>
+      <c r="BB33" s="157"/>
+      <c r="BC33" s="157"/>
+      <c r="BD33" s="157"/>
+      <c r="BE33" s="157"/>
+      <c r="BF33" s="157"/>
+      <c r="BG33" s="157"/>
+      <c r="BH33" s="157"/>
+      <c r="BI33" s="157"/>
+      <c r="BJ33" s="157"/>
+      <c r="BK33" s="157"/>
+      <c r="BL33" s="157"/>
+      <c r="BM33" s="157"/>
+      <c r="BN33" s="157"/>
+      <c r="BO33" s="157"/>
+      <c r="BP33" s="157"/>
+      <c r="BQ33" s="157"/>
+      <c r="BR33" s="157"/>
+      <c r="BS33" s="157"/>
+      <c r="BT33" s="157"/>
+      <c r="BU33" s="157"/>
+      <c r="BV33" s="157"/>
+      <c r="BW33" s="157"/>
+      <c r="BX33" s="157"/>
+      <c r="BY33" s="157"/>
+      <c r="BZ33" s="157"/>
+      <c r="CA33" s="157"/>
+      <c r="CB33" s="157"/>
+      <c r="CC33" s="157"/>
+      <c r="CD33" s="157"/>
+      <c r="CE33" s="157"/>
+      <c r="CF33" s="157"/>
+      <c r="CG33" s="157"/>
+      <c r="CH33" s="157"/>
+      <c r="CI33" s="157"/>
+      <c r="CJ33" s="157"/>
+      <c r="CK33" s="157"/>
+      <c r="CL33" s="157"/>
+      <c r="CM33" s="157"/>
+      <c r="CN33" s="157"/>
+      <c r="CO33" s="157"/>
+      <c r="CP33" s="157"/>
+      <c r="CQ33" s="157"/>
+      <c r="CR33" s="157"/>
+      <c r="CS33" s="157"/>
+      <c r="CT33" s="157"/>
+      <c r="CU33" s="157"/>
+      <c r="CV33" s="157"/>
+      <c r="CW33" s="157"/>
+      <c r="CX33" s="157"/>
+      <c r="CY33" s="157"/>
+      <c r="CZ33" s="157"/>
+      <c r="DA33" s="157"/>
+      <c r="DB33" s="157"/>
+      <c r="DC33" s="157"/>
+      <c r="DD33" s="157"/>
+      <c r="DE33" s="157"/>
+      <c r="DF33" s="157"/>
+      <c r="DG33" s="157"/>
+      <c r="DH33" s="157"/>
+      <c r="DI33" s="157"/>
+      <c r="DJ33" s="157"/>
+      <c r="DK33" s="157"/>
+      <c r="DL33" s="157"/>
+      <c r="DM33" s="157"/>
+      <c r="DN33" s="157"/>
+      <c r="DO33" s="157"/>
+      <c r="DP33" s="157"/>
+      <c r="DQ33" s="157"/>
+      <c r="DR33" s="157"/>
+      <c r="DS33" s="157"/>
+      <c r="DT33" s="157"/>
+      <c r="DU33" s="157"/>
+      <c r="DV33" s="157"/>
+      <c r="DW33" s="157"/>
+      <c r="DX33" s="157"/>
+      <c r="DY33" s="157"/>
+      <c r="DZ33" s="157"/>
+      <c r="EA33" s="157"/>
+      <c r="EB33" s="157"/>
+      <c r="EC33" s="157"/>
+      <c r="ED33" s="157"/>
+      <c r="EE33" s="157"/>
+      <c r="EF33" s="157"/>
+      <c r="EG33" s="157"/>
+      <c r="EH33" s="157"/>
+      <c r="EI33" s="157"/>
+      <c r="EJ33" s="157"/>
+      <c r="EK33" s="157"/>
+      <c r="EL33" s="157"/>
     </row>
     <row r="34" spans="1:142" s="140" customFormat="1"/>
     <row r="35" spans="1:142" s="140" customFormat="1"/>
